--- a/src/main/resources/neuro4plex_Model.xlsx
+++ b/src/main/resources/neuro4plex_Model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\git\mutiplexSimoaGenerator\multiplexSimoaGenerator\src\main\java\com\multiplexSimoaGenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\IdeaProjects\mutiplexSimoaGenerator\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB09EE1-0CE4-49FF-8EA7-3D94CA81BD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50B6066-635B-44CC-B2C0-4A093D4B75D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -647,6 +647,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -692,35 +693,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -1037,7 +1010,7 @@
   <dimension ref="A1:O807"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1092,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="2" t="e">
+      <c r="M2" s="18" t="e">
         <f t="shared" ref="M2:M9" si="3">E2*AVERAGE(K2,L2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1150,7 +1123,7 @@
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="2" t="e">
+      <c r="M3" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1181,7 +1154,7 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="2" t="e">
+      <c r="M4" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1212,7 +1185,7 @@
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="2" t="e">
+      <c r="M5" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1243,7 +1216,7 @@
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="2" t="e">
+      <c r="M6" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1274,7 +1247,7 @@
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="2" t="e">
+      <c r="M7" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1305,7 +1278,7 @@
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="2" t="e">
+      <c r="M8" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1336,7 +1309,7 @@
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="2" t="e">
+      <c r="M9" s="18" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -1367,7 +1340,7 @@
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="2" t="e">
+      <c r="M10" s="18" t="e">
         <f t="shared" ref="M10:M33" si="8">E10*AVERAGE(K10,L10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1398,7 +1371,7 @@
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="2" t="e">
+      <c r="M11" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1429,7 +1402,7 @@
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="2" t="e">
+      <c r="M12" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1460,7 +1433,7 @@
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="2" t="e">
+      <c r="M13" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1491,7 +1464,7 @@
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="2" t="e">
+      <c r="M14" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1522,7 +1495,7 @@
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="2" t="e">
+      <c r="M15" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1553,7 +1526,7 @@
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="2" t="e">
+      <c r="M16" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1584,7 +1557,7 @@
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="2" t="e">
+      <c r="M17" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1615,7 +1588,7 @@
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="2" t="e">
+      <c r="M18" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1646,7 +1619,7 @@
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="2" t="e">
+      <c r="M19" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1678,7 +1651,7 @@
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="2" t="e">
+      <c r="M20" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1709,7 +1682,7 @@
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="2" t="e">
+      <c r="M21" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1740,7 +1713,7 @@
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="2" t="e">
+      <c r="M22" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1771,7 +1744,7 @@
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
-      <c r="M23" s="2" t="e">
+      <c r="M23" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1802,7 +1775,7 @@
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="2" t="e">
+      <c r="M24" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1833,7 +1806,7 @@
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="2" t="e">
+      <c r="M25" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1864,7 +1837,7 @@
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="2" t="e">
+      <c r="M26" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1895,7 +1868,7 @@
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
-      <c r="M27" s="2" t="e">
+      <c r="M27" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1926,7 +1899,7 @@
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
-      <c r="M28" s="2" t="e">
+      <c r="M28" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1957,7 +1930,7 @@
       </c>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="2" t="e">
+      <c r="M29" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -1988,7 +1961,7 @@
       </c>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
-      <c r="M30" s="2" t="e">
+      <c r="M30" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -2019,7 +1992,7 @@
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
-      <c r="M31" s="2" t="e">
+      <c r="M31" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -2050,7 +2023,7 @@
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="2" t="e">
+      <c r="M32" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -2081,7 +2054,7 @@
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
-      <c r="M33" s="2" t="e">
+      <c r="M33" s="18" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -2112,7 +2085,7 @@
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
-      <c r="M34" s="2" t="e">
+      <c r="M34" s="18" t="e">
         <f t="shared" ref="M34:M65" si="13">E34*AVERAGE(K34,L34)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2143,7 +2116,7 @@
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
-      <c r="M35" s="2" t="e">
+      <c r="M35" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2174,7 +2147,7 @@
       </c>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
-      <c r="M36" s="2" t="e">
+      <c r="M36" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2205,7 +2178,7 @@
       </c>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
-      <c r="M37" s="2" t="e">
+      <c r="M37" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2236,7 +2209,7 @@
       </c>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2267,7 +2240,7 @@
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2298,7 +2271,7 @@
       </c>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2329,7 +2302,7 @@
       </c>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2360,7 +2333,7 @@
       </c>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2391,7 +2364,7 @@
       </c>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
-      <c r="M43" s="2" t="e">
+      <c r="M43" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2422,7 +2395,7 @@
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
-      <c r="M44" s="2" t="e">
+      <c r="M44" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2453,7 +2426,7 @@
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
-      <c r="M45" s="2" t="e">
+      <c r="M45" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2484,7 +2457,7 @@
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
-      <c r="M46" s="2" t="e">
+      <c r="M46" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2515,7 +2488,7 @@
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2546,7 +2519,7 @@
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2577,7 +2550,7 @@
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
-      <c r="M49" s="2" t="e">
+      <c r="M49" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2608,7 +2581,7 @@
       </c>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
-      <c r="M50" s="2" t="e">
+      <c r="M50" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2635,7 +2608,7 @@
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
-      <c r="M51" s="2" t="e">
+      <c r="M51" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2662,7 +2635,7 @@
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
-      <c r="M52" s="2" t="e">
+      <c r="M52" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2689,7 +2662,7 @@
       </c>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
-      <c r="M53" s="2" t="e">
+      <c r="M53" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2716,7 +2689,7 @@
       </c>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
-      <c r="M54" s="2" t="e">
+      <c r="M54" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2743,7 +2716,7 @@
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
-      <c r="M55" s="2" t="e">
+      <c r="M55" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2770,7 +2743,7 @@
       </c>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
-      <c r="M56" s="2" t="e">
+      <c r="M56" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2797,7 +2770,7 @@
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
-      <c r="M57" s="2" t="e">
+      <c r="M57" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2824,7 +2797,7 @@
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
-      <c r="M58" s="2" t="e">
+      <c r="M58" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2851,7 +2824,7 @@
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
-      <c r="M59" s="2" t="e">
+      <c r="M59" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2878,7 +2851,7 @@
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
-      <c r="M60" s="2" t="e">
+      <c r="M60" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2905,7 +2878,7 @@
       </c>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
-      <c r="M61" s="2" t="e">
+      <c r="M61" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2932,7 +2905,7 @@
       </c>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
-      <c r="M62" s="2" t="e">
+      <c r="M62" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2959,7 +2932,7 @@
       </c>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
-      <c r="M63" s="2" t="e">
+      <c r="M63" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -2986,7 +2959,7 @@
       </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
-      <c r="M64" s="2" t="e">
+      <c r="M64" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -3013,7 +2986,7 @@
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
-      <c r="M65" s="2" t="e">
+      <c r="M65" s="18" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -3040,7 +3013,7 @@
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
-      <c r="M66" s="2" t="e">
+      <c r="M66" s="18" t="e">
         <f t="shared" ref="M66:M97" si="17">E66*AVERAGE(K66,L66)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3067,7 +3040,7 @@
       </c>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
-      <c r="M67" s="2" t="e">
+      <c r="M67" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3094,7 +3067,7 @@
       </c>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
-      <c r="M68" s="2" t="e">
+      <c r="M68" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3121,7 +3094,7 @@
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
-      <c r="M69" s="2" t="e">
+      <c r="M69" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3148,7 +3121,7 @@
       </c>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
-      <c r="M70" s="2" t="e">
+      <c r="M70" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3175,7 +3148,7 @@
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
-      <c r="M71" s="2" t="e">
+      <c r="M71" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3202,7 +3175,7 @@
       </c>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
-      <c r="M72" s="2" t="e">
+      <c r="M72" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3229,7 +3202,7 @@
       </c>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
-      <c r="M73" s="2" t="e">
+      <c r="M73" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3256,7 +3229,7 @@
       </c>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
-      <c r="M74" s="2" t="e">
+      <c r="M74" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3283,7 +3256,7 @@
       </c>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
-      <c r="M75" s="2" t="e">
+      <c r="M75" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3310,7 +3283,7 @@
       </c>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
-      <c r="M76" s="2" t="e">
+      <c r="M76" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3337,7 +3310,7 @@
       </c>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
-      <c r="M77" s="2" t="e">
+      <c r="M77" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3364,7 +3337,7 @@
       </c>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
-      <c r="M78" s="2" t="e">
+      <c r="M78" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3391,7 +3364,7 @@
       </c>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
-      <c r="M79" s="2" t="e">
+      <c r="M79" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3418,7 +3391,7 @@
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
-      <c r="M80" s="2" t="e">
+      <c r="M80" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3445,7 +3418,7 @@
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
-      <c r="M81" s="2" t="e">
+      <c r="M81" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3472,7 +3445,7 @@
       </c>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
-      <c r="M82" s="2" t="e">
+      <c r="M82" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3499,7 +3472,7 @@
       </c>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
-      <c r="M83" s="2" t="e">
+      <c r="M83" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3526,7 +3499,7 @@
       </c>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
-      <c r="M84" s="2" t="e">
+      <c r="M84" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3553,7 +3526,7 @@
       </c>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
-      <c r="M85" s="2" t="e">
+      <c r="M85" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3580,7 +3553,7 @@
       </c>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
-      <c r="M86" s="2" t="e">
+      <c r="M86" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3607,7 +3580,7 @@
       </c>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
-      <c r="M87" s="2" t="e">
+      <c r="M87" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3634,7 +3607,7 @@
       </c>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
-      <c r="M88" s="2" t="e">
+      <c r="M88" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3661,7 +3634,7 @@
       </c>
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
-      <c r="M89" s="2" t="e">
+      <c r="M89" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3688,7 +3661,7 @@
       </c>
       <c r="K90" s="13"/>
       <c r="L90" s="13"/>
-      <c r="M90" s="2" t="e">
+      <c r="M90" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3715,7 +3688,7 @@
       </c>
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
-      <c r="M91" s="2" t="e">
+      <c r="M91" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3742,7 +3715,7 @@
       </c>
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
-      <c r="M92" s="2" t="e">
+      <c r="M92" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3769,7 +3742,7 @@
       </c>
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
-      <c r="M93" s="2" t="e">
+      <c r="M93" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3796,7 +3769,7 @@
       </c>
       <c r="K94" s="13"/>
       <c r="L94" s="13"/>
-      <c r="M94" s="2" t="e">
+      <c r="M94" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3823,7 +3796,7 @@
       </c>
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
-      <c r="M95" s="2" t="e">
+      <c r="M95" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3850,7 +3823,7 @@
       </c>
       <c r="K96" s="13"/>
       <c r="L96" s="13"/>
-      <c r="M96" s="2" t="e">
+      <c r="M96" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3877,7 +3850,7 @@
       </c>
       <c r="K97" s="13"/>
       <c r="L97" s="13"/>
-      <c r="M97" s="2" t="e">
+      <c r="M97" s="18" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
@@ -3904,7 +3877,7 @@
       </c>
       <c r="K98" s="13"/>
       <c r="L98" s="13"/>
-      <c r="M98" s="2" t="e">
+      <c r="M98" s="18" t="e">
         <f t="shared" ref="M98:M100" si="19">E98*AVERAGE(K98,L98)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3931,7 +3904,7 @@
       </c>
       <c r="K99" s="13"/>
       <c r="L99" s="13"/>
-      <c r="M99" s="2" t="e">
+      <c r="M99" s="18" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
@@ -3958,7 +3931,7 @@
       </c>
       <c r="K100" s="13"/>
       <c r="L100" s="13"/>
-      <c r="M100" s="2" t="e">
+      <c r="M100" s="18" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
@@ -6797,7 +6770,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J100">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="2" stopIfTrue="1">
@@ -6805,7 +6778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N100">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="1" stopIfTrue="1">
@@ -6813,7 +6786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G100">
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Unable">
+    <cfRule type="beginsWith" dxfId="0" priority="3" operator="beginsWith" text="Unable">
       <formula>LEFT(F2,LEN("Unable"))="Unable"</formula>
     </cfRule>
   </conditionalFormatting>
